--- a/Data/Temp/Yearly-Report-RO094782-2020-May.xlsx
+++ b/Data/Temp/Yearly-Report-RO094782-2020-May.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
-    <x:t>470868</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40059.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>240356</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-26</x:t>
+    <x:t>277140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23651.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141908</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
   </x:si>
 </x:sst>
 </file>
